--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431559.455653192</v>
+        <v>1429671.874136791</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>236.7859136099387</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.9222910483171</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>341.4691678678095</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.9222910483171</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>394.5289683486419</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>155.8860385675339</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056521</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.56876306769605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>36.41593006389165</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.2541671901472</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.35146980185823</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.1185891390125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>171.1840835387248</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664879</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39.02414356983112</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>6.348656829616573</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>161.8175117958951</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>83.12425338338397</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965514</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801196</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>42.20569823125738</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523559</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,19 +3004,19 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>106.8479136214127</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224536</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2402.942711033626</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2071.879823690055</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1719.111168419941</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1345.645410158861</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>955.5060781830496</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.2569682722596</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022959</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1536.199889775781</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1146.060557799969</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1684.117239186543</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>1684.117239186543</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005402</v>
+        <v>1325.851540579792</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8990031022959</v>
+        <v>940.063287981548</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>933.1177872323445</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380755</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,37 +5027,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>148.5096761832835</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>559.3999450277963</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>806.1650729342605</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028587</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,22 +5276,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>284.1174986139263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>284.1174986139263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>134.0008592015906</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>134.0008592015906</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>134.0008592015906</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811266</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441659</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="X16" t="n">
-        <v>465.7659634441659</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y16" t="n">
-        <v>465.765963444166</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,19 +5504,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.5250474102527</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.5250474102527</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102527</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102527</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765189</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765189</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W19" t="n">
-        <v>496.6650364395583</v>
+        <v>130.9054447954962</v>
       </c>
       <c r="X19" t="n">
-        <v>496.6650364395583</v>
+        <v>130.9054447954962</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.5250474102527</v>
+        <v>130.9054447954962</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U22" t="n">
-        <v>991.1425362135525</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="V22" t="n">
-        <v>736.4580480076656</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>447.040877970705</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5972,22 +5972,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6005,31 +6005,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.1765965867978</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>545.1765965867978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>395.0599571744621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>395.0599571744621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>248.1700096765517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>248.1700096765517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247849</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383432</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>675.0071030383432</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150549</v>
+        <v>668.5943183619628</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170375</v>
+        <v>668.5943183619628</v>
       </c>
       <c r="Y25" t="n">
-        <v>726.8250614170375</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,28 +6209,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.3583290631015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>563.4221461351945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473454</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267567</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>1044.311772267567</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>816.3222213695499</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>732.3583290631015</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215245</v>
+        <v>439.5324299542206</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749884</v>
+        <v>326.3571123076846</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440236</v>
+        <v>232.0013381767198</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>139.8491098756973</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1282.64740934263</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>1048.99110458704</v>
+        <v>902.6804289818949</v>
       </c>
       <c r="X31" t="n">
-        <v>876.7624189703934</v>
+        <v>730.4517433652485</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703934</v>
+        <v>565.4200295030894</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,19 +6926,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,16 +7190,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103128</v>
@@ -7567,31 +7567,31 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7795,22 +7795,22 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9.900512684484852</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M18" t="n">
-        <v>127.6461250100646</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>62.91120742583806</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>297.3877236703349</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>9.900512684485989</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.0158902843988</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0776383994859</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>14.45548819889001</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800791</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.4660642130823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>115.0532688598526</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>192.3581855871792</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>109.889684797705</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.1743415069744</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>124.4198406026823</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.4603999687109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311666</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897891</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>90.08647307385814</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="11">
@@ -26314,19 +26314,19 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983652</v>
@@ -26335,25 +26335,25 @@
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>467845.4579470615</v>
+        <v>467845.4579470612</v>
       </c>
       <c r="L2" t="n">
+        <v>472099.0176719627</v>
+      </c>
+      <c r="M2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="M2" t="n">
-        <v>472099.0176719628</v>
-      </c>
       <c r="N2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
     </row>
     <row r="3">
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284577</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086674</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284579</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687068</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106728</v>
+        <v>40339.2301010673</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925155</v>
+        <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.071822029</v>
+        <v>223607.0718220291</v>
       </c>
       <c r="D6" t="n">
         <v>223607.0718220292</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141184</v>
+        <v>-189736.0104400906</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627778</v>
+        <v>335424.026036806</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.4851627779</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627778</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627781</v>
+        <v>335424.0260368057</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.2659701849</v>
+        <v>159000.8068442127</v>
       </c>
       <c r="K6" t="n">
-        <v>286715.4140129256</v>
+        <v>286696.920274991</v>
       </c>
       <c r="L6" t="n">
         <v>319447.6102228794</v>
       </c>
       <c r="M6" t="n">
-        <v>194989.5017899091</v>
+        <v>194989.501789909</v>
       </c>
       <c r="N6" t="n">
         <v>329790.5170237462</v>
@@ -26561,7 +26561,7 @@
         <v>329790.5170237462</v>
       </c>
       <c r="P6" t="n">
-        <v>285627.9117209006</v>
+        <v>285627.9117209004</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,19 +26747,19 @@
         <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108343</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855724</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>14.43825389835064</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>170.6111335945611</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.95375469339433</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28.26193281065952</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.95375469339433</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>19.25520167215313</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150326</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>51.81069163939159</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>502.4808891147313</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M18" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>492.4584513372614</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36525,7 +36525,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206028</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>534.0986420439142</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412273</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043196</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>213.4866460137773</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686864</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,19 +37394,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37555,10 +37555,10 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>504.4811386018595</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>216.9939276160106</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
